--- a/temp_doc/PESERTA UJIAN PPG.xlsx
+++ b/temp_doc/PESERTA UJIAN PPG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7250CF-9F4D-304D-A49F-FDD80086C010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72B2750-BCFC-EC4F-BEF6-3273204AD789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,78 +105,6 @@
   </si>
   <si>
     <t>DIAH SINTIA</t>
-  </si>
-  <si>
-    <t>PPG001</t>
-  </si>
-  <si>
-    <t>PPG002</t>
-  </si>
-  <si>
-    <t>PPG003</t>
-  </si>
-  <si>
-    <t>PPG004</t>
-  </si>
-  <si>
-    <t>PPG005</t>
-  </si>
-  <si>
-    <t>PPG006</t>
-  </si>
-  <si>
-    <t>PPG007</t>
-  </si>
-  <si>
-    <t>PPG008</t>
-  </si>
-  <si>
-    <t>PPG009</t>
-  </si>
-  <si>
-    <t>PPG010</t>
-  </si>
-  <si>
-    <t>PPG011</t>
-  </si>
-  <si>
-    <t>PPG012</t>
-  </si>
-  <si>
-    <t>PPG013</t>
-  </si>
-  <si>
-    <t>PPG014</t>
-  </si>
-  <si>
-    <t>PPG015</t>
-  </si>
-  <si>
-    <t>PPG016</t>
-  </si>
-  <si>
-    <t>PPG017</t>
-  </si>
-  <si>
-    <t>PPG018</t>
-  </si>
-  <si>
-    <t>PPG019</t>
-  </si>
-  <si>
-    <t>PPG020</t>
-  </si>
-  <si>
-    <t>PPG021</t>
-  </si>
-  <si>
-    <t>PPG022</t>
-  </si>
-  <si>
-    <t>PPG023</t>
-  </si>
-  <si>
-    <t>PPG024</t>
   </si>
   <si>
     <t>USER001</t>
@@ -284,10 +212,82 @@
     <t>SHERIL ARDIKA A.</t>
   </si>
   <si>
-    <t>PPG025</t>
+    <t>USER025</t>
   </si>
   <si>
-    <t>USER025</t>
+    <t>PASS001</t>
+  </si>
+  <si>
+    <t>PASS002</t>
+  </si>
+  <si>
+    <t>PASS003</t>
+  </si>
+  <si>
+    <t>PASS004</t>
+  </si>
+  <si>
+    <t>PASS005</t>
+  </si>
+  <si>
+    <t>PASS006</t>
+  </si>
+  <si>
+    <t>PASS007</t>
+  </si>
+  <si>
+    <t>PASS008</t>
+  </si>
+  <si>
+    <t>PASS009</t>
+  </si>
+  <si>
+    <t>PASS010</t>
+  </si>
+  <si>
+    <t>PASS011</t>
+  </si>
+  <si>
+    <t>PASS012</t>
+  </si>
+  <si>
+    <t>PASS013</t>
+  </si>
+  <si>
+    <t>PASS014</t>
+  </si>
+  <si>
+    <t>PASS015</t>
+  </si>
+  <si>
+    <t>PASS016</t>
+  </si>
+  <si>
+    <t>PASS017</t>
+  </si>
+  <si>
+    <t>PASS018</t>
+  </si>
+  <si>
+    <t>PASS019</t>
+  </si>
+  <si>
+    <t>PASS020</t>
+  </si>
+  <si>
+    <t>PASS021</t>
+  </si>
+  <si>
+    <t>PASS022</t>
+  </si>
+  <si>
+    <t>PASS023</t>
+  </si>
+  <si>
+    <t>PASS024</t>
+  </si>
+  <si>
+    <t>PASS025</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,7 +399,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -720,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A26"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,25 +734,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -767,7 +766,7 @@
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1035999</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -776,8 +775,8 @@
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -788,9 +787,9 @@
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6">
         <v>1035999</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -799,8 +798,8 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -813,7 +812,7 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1035999</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -822,8 +821,8 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>48</v>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -836,7 +835,7 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1035999</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -845,8 +844,8 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>49</v>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -859,7 +858,7 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1035999</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -868,8 +867,8 @@
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>50</v>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -880,9 +879,9 @@
         <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="7">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6">
         <v>1035999</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -891,8 +890,8 @@
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -903,9 +902,9 @@
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="7">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6">
         <v>1035999</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -914,8 +913,8 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -928,7 +927,7 @@
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1035999</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -937,8 +936,8 @@
       <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>53</v>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -951,7 +950,7 @@
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1035999</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -960,8 +959,8 @@
       <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>54</v>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -974,7 +973,7 @@
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1035999</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -983,8 +982,8 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>55</v>
+      <c r="G11" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -997,7 +996,7 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1035999</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1006,8 +1005,8 @@
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1019,7 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1035999</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1029,8 +1028,8 @@
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -1042,9 +1041,9 @@
         <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="7">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6">
         <v>1035999</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1053,8 +1052,8 @@
       <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>58</v>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1065,9 +1064,9 @@
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="7">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
         <v>1035999</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1076,8 +1075,8 @@
       <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>59</v>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1088,9 +1087,9 @@
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6">
         <v>1035999</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1099,8 +1098,8 @@
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>60</v>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1111,9 +1110,9 @@
         <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="7">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6">
         <v>1035999</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1122,8 +1121,8 @@
       <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>61</v>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1134,9 +1133,9 @@
         <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="7">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6">
         <v>1035999</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1145,8 +1144,8 @@
       <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>62</v>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1157,9 +1156,9 @@
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6">
         <v>1035999</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1168,8 +1167,8 @@
       <c r="F19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>63</v>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1180,9 +1179,9 @@
         <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6">
         <v>1035999</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1191,8 +1190,8 @@
       <c r="F20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>64</v>
+      <c r="G20" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1204,7 @@
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>1035999</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1214,8 +1213,8 @@
       <c r="F21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>65</v>
+      <c r="G21" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1228,7 +1227,7 @@
       <c r="C22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>1035999</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1237,8 +1236,8 @@
       <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>66</v>
+      <c r="G22" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1249,9 +1248,9 @@
         <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="7">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6">
         <v>1035999</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1260,8 +1259,8 @@
       <c r="F23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>67</v>
+      <c r="G23" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1273,7 @@
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>1035999</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1283,8 +1282,8 @@
       <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>68</v>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1296,7 @@
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>1035999</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1306,8 +1305,8 @@
       <c r="F25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>69</v>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1315,21 +1314,21 @@
         <v>1025</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>1035999</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/temp_doc/PESERTA UJIAN PPG.xlsx
+++ b/temp_doc/PESERTA UJIAN PPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72B2750-BCFC-EC4F-BEF6-3273204AD789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9F8CF0-E1FB-0A4A-95B8-F4CCFD8FB4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8461,5 +8461,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>